--- a/df_list_20241226.xlsx
+++ b/df_list_20241226.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="166">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -463,16 +463,68 @@
   </si>
   <si>
     <t>2025년 고성군 생태관광(독수리) 체험 프로그램 운영 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>전라도_익산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
+  </si>
+  <si>
+    <t>오산면 기초생활거점조성사업(2단계) 지역역량강화 용역 제안서 평가결과 고...</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>남부권 청소년센터 건립심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>전주시 용역과제심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>경상도_구미시</t>
+  </si>
+  <si>
+    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+  </si>
+  <si>
+    <t>2025년 굿모닝 수요특강 위탁 용역 제안서 평가위원 명단 및 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>『운문면 마일1리 농어촌취약지역생활여건개조사업 기본계획 수립 및 휴먼케어, 주민역량강화 용역』제안서 평가결과 공고</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -494,6 +546,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -524,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -534,6 +590,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1538,11 +1603,106 @@
         <v>45652.507627314815</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45653.032372685186</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45653.0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>45653.032372685186</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45653.032372685186</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45653.032372685186</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45652.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45653.032372685186</v>
+      </c>
+    </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
@@ -2500,9 +2660,16 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C40"/>
+    <hyperlink r:id="rId2" ref="C41"/>
+    <hyperlink r:id="rId3" ref="C42"/>
+    <hyperlink r:id="rId4" ref="C43"/>
+    <hyperlink r:id="rId5" ref="C44"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>